--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Seguridad.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Seguridad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -41,16 +41,73 @@
     <t>PS01</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Forzar la entrada al apartado de administrador sin iniciar sesión</t>
+  </si>
+  <si>
+    <t>Angel Meza</t>
+  </si>
+  <si>
+    <t>No tener la sesión iniciada</t>
+  </si>
+  <si>
+    <t>Redirige a la página principal</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funciona sin ningun problema - Sin Observaciones </t>
   </si>
   <si>
     <t>PS02</t>
   </si>
   <si>
+    <t>Forzar el acceso a través de la api con correos no registrados</t>
+  </si>
+  <si>
+    <t>En el inicio de sesión de google utilizar un correo no registrado en el sitio</t>
+  </si>
+  <si>
+    <t>Redirige a la página principal informando que no está registrado en el sitio</t>
+  </si>
+  <si>
     <t>PS03</t>
   </si>
   <si>
-    <t>PS04</t>
+    <t>Forzar en envío de datos en los formularios con infomación no admitida</t>
+  </si>
+  <si>
+    <t>Modificar la vista del código para enviar datos no admitidos</t>
+  </si>
+  <si>
+    <t>Muestra un mensaje de error al envíar los datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forzar la entrada al apartado de administrador tipo 1 con sesión iniciada </t>
+  </si>
+  <si>
+    <t>Tener la sesión iniciada como administrador tipo 2</t>
+  </si>
+  <si>
+    <t>Redirige a la página principal del administrador tipo 2</t>
+  </si>
+  <si>
+    <t>Al tratar de acceder al apartado redirige a la página de inicio del sitio en vez principal del administrador tipo 2</t>
+  </si>
+  <si>
+    <t>Se corrigen los parametros del middleware correspondientes para el correcto funcionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forzar la entrada al apartado de administrador tipo 2 con sesión iniciada </t>
+  </si>
+  <si>
+    <t>Tener la sesión iniciada como administrador tipo 1</t>
+  </si>
+  <si>
+    <t>Redirige a la página principal del administrador tipo 1</t>
+  </si>
+  <si>
+    <t>Al tratar de acceder al apartado redirige a la página de inicio del sitio en vez principal del administrador tipo 1</t>
   </si>
 </sst>
 </file>
@@ -166,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -191,9 +248,15 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -480,33 +543,43 @@
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="2" t="s">
-        <v>9</v>
+      <c r="N5" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="13"/>
+      <c r="V5" s="14"/>
       <c r="W5" s="3"/>
       <c r="X5" s="4"/>
     </row>
     <row r="6">
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7"/>
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
@@ -523,7 +596,7 @@
       <c r="X6" s="11"/>
     </row>
     <row r="7">
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7"/>
       <c r="E7" s="11"/>
       <c r="F7" s="7"/>
@@ -540,7 +613,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8">
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="7"/>
       <c r="E8" s="11"/>
       <c r="F8" s="7"/>
@@ -557,7 +630,7 @@
       <c r="X8" s="11"/>
     </row>
     <row r="9">
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7"/>
       <c r="E9" s="11"/>
       <c r="F9" s="7"/>
@@ -600,35 +673,45 @@
     </row>
     <row r="11">
       <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="2" t="s">
-        <v>9</v>
+      <c r="N11" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="13"/>
+      <c r="P11" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="13"/>
+      <c r="V11" s="14"/>
       <c r="W11" s="3"/>
       <c r="X11" s="4"/>
     </row>
     <row r="12">
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="7"/>
@@ -645,7 +728,7 @@
       <c r="X12" s="11"/>
     </row>
     <row r="13">
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
       <c r="E13" s="11"/>
       <c r="F13" s="7"/>
@@ -662,7 +745,7 @@
       <c r="X13" s="11"/>
     </row>
     <row r="14">
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
       <c r="E14" s="11"/>
       <c r="F14" s="7"/>
@@ -679,7 +762,7 @@
       <c r="X14" s="11"/>
     </row>
     <row r="15">
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
       <c r="E15" s="11"/>
       <c r="F15" s="7"/>
@@ -722,24 +805,34 @@
     </row>
     <row r="17">
       <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="2" t="s">
-        <v>9</v>
+      <c r="N17" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="13"/>
+      <c r="P17" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -750,7 +843,7 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18">
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="7"/>
       <c r="E18" s="11"/>
       <c r="F18" s="7"/>
@@ -767,7 +860,7 @@
       <c r="X18" s="11"/>
     </row>
     <row r="19">
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="7"/>
       <c r="E19" s="11"/>
       <c r="F19" s="7"/>
@@ -784,7 +877,7 @@
       <c r="X19" s="11"/>
     </row>
     <row r="20">
-      <c r="B20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="7"/>
       <c r="E20" s="11"/>
       <c r="F20" s="7"/>
@@ -801,7 +894,7 @@
       <c r="X20" s="11"/>
     </row>
     <row r="21">
-      <c r="B21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="7"/>
       <c r="E21" s="11"/>
       <c r="F21" s="7"/>
@@ -842,24 +935,531 @@
       <c r="W22" s="10"/>
       <c r="X22" s="9"/>
     </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:U4"/>
+    <mergeCell ref="V3:X4"/>
+    <mergeCell ref="P5:U10"/>
+    <mergeCell ref="V5:X10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:E10"/>
+    <mergeCell ref="F5:G10"/>
+    <mergeCell ref="H5:J10"/>
+    <mergeCell ref="K5:M10"/>
+    <mergeCell ref="N5:O10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:E16"/>
+    <mergeCell ref="F11:G16"/>
+    <mergeCell ref="H11:J16"/>
+    <mergeCell ref="K11:M16"/>
+    <mergeCell ref="P11:U16"/>
+    <mergeCell ref="V11:X16"/>
+    <mergeCell ref="C17:E22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="N11:O16"/>
+    <mergeCell ref="N17:O22"/>
+    <mergeCell ref="F17:G22"/>
+    <mergeCell ref="K17:M22"/>
+    <mergeCell ref="V17:X22"/>
+    <mergeCell ref="H17:J22"/>
+    <mergeCell ref="P17:U22"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="7"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="7"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="7"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="7"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="15"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="7"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="7"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="15"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="7"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="7"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="7"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="7"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="7"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="7"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="7"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="7"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="7"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="7"/>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="7"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="7"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="7"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="7"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="7"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="7"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="7"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="7"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="9"/>
+    </row>
     <row r="23">
-      <c r="B23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="4"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="3"/>
@@ -872,7 +1472,7 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24">
-      <c r="B24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="7"/>
       <c r="E24" s="11"/>
       <c r="F24" s="7"/>
@@ -889,7 +1489,7 @@
       <c r="X24" s="11"/>
     </row>
     <row r="25">
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="7"/>
       <c r="E25" s="11"/>
       <c r="F25" s="7"/>
@@ -906,7 +1506,7 @@
       <c r="X25" s="11"/>
     </row>
     <row r="26">
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="7"/>
       <c r="E26" s="11"/>
       <c r="F26" s="7"/>
@@ -923,7 +1523,7 @@
       <c r="X26" s="11"/>
     </row>
     <row r="27">
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="7"/>
       <c r="E27" s="11"/>
       <c r="F27" s="7"/>
@@ -973,8 +1573,6 @@
     <mergeCell ref="N3:O4"/>
     <mergeCell ref="P3:U4"/>
     <mergeCell ref="V3:X4"/>
-    <mergeCell ref="P5:U10"/>
-    <mergeCell ref="V5:X10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C5:E10"/>
@@ -982,637 +1580,32 @@
     <mergeCell ref="H5:J10"/>
     <mergeCell ref="K5:M10"/>
     <mergeCell ref="N5:O10"/>
+    <mergeCell ref="N11:O16"/>
+    <mergeCell ref="H17:J22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="N17:O22"/>
+    <mergeCell ref="C17:E22"/>
+    <mergeCell ref="F17:G22"/>
+    <mergeCell ref="K17:M22"/>
+    <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:E16"/>
     <mergeCell ref="F11:G16"/>
     <mergeCell ref="H11:J16"/>
     <mergeCell ref="K11:M16"/>
-    <mergeCell ref="N11:O16"/>
     <mergeCell ref="P11:U16"/>
     <mergeCell ref="V11:X16"/>
+    <mergeCell ref="F23:G28"/>
+    <mergeCell ref="C23:E28"/>
+    <mergeCell ref="B23:B28"/>
     <mergeCell ref="P17:U22"/>
     <mergeCell ref="V17:X22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:E28"/>
-    <mergeCell ref="F23:G28"/>
+    <mergeCell ref="P5:U10"/>
+    <mergeCell ref="V5:X10"/>
+    <mergeCell ref="N23:O28"/>
     <mergeCell ref="H23:J28"/>
     <mergeCell ref="K23:M28"/>
-    <mergeCell ref="N23:O28"/>
     <mergeCell ref="P23:U28"/>
     <mergeCell ref="V23:X28"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:E22"/>
-    <mergeCell ref="F17:G22"/>
-    <mergeCell ref="H17:J22"/>
-    <mergeCell ref="K17:M22"/>
-    <mergeCell ref="N17:O22"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="14"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="7"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="7"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="7"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="7"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="7"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="14"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="7"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="7"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="7"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="7"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="7"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="7"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="7"/>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="7"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="7"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="7"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="7"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="7"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="7"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="14"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="7"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="7"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="7"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="7"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="7"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="7"/>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="14"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="7"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="7"/>
-      <c r="X18" s="11"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="7"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="7"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="7"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="7"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="7"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="7"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="7"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="7"/>
-      <c r="X20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="7"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="7"/>
-      <c r="X21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="14"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="7"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="7"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="7"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="7"/>
-      <c r="X24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="7"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="7"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="7"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="7"/>
-      <c r="X25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="7"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="7"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="7"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="7"/>
-      <c r="X26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="14"/>
-      <c r="C27" s="7"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="7"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="7"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="7"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="7"/>
-      <c r="X27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:U4"/>
-    <mergeCell ref="V3:X4"/>
-    <mergeCell ref="P5:U10"/>
-    <mergeCell ref="V5:X10"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:E10"/>
-    <mergeCell ref="F5:G10"/>
-    <mergeCell ref="H5:J10"/>
-    <mergeCell ref="K5:M10"/>
-    <mergeCell ref="N5:O10"/>
-    <mergeCell ref="C11:E16"/>
-    <mergeCell ref="F11:G16"/>
-    <mergeCell ref="H11:J16"/>
-    <mergeCell ref="K11:M16"/>
-    <mergeCell ref="N11:O16"/>
-    <mergeCell ref="P11:U16"/>
-    <mergeCell ref="V11:X16"/>
-    <mergeCell ref="P17:U22"/>
-    <mergeCell ref="V17:X22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:E28"/>
-    <mergeCell ref="F23:G28"/>
-    <mergeCell ref="H23:J28"/>
-    <mergeCell ref="K23:M28"/>
-    <mergeCell ref="N23:O28"/>
-    <mergeCell ref="P23:U28"/>
-    <mergeCell ref="V23:X28"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:E22"/>
-    <mergeCell ref="F17:G22"/>
-    <mergeCell ref="H17:J22"/>
-    <mergeCell ref="K17:M22"/>
-    <mergeCell ref="N17:O22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Seguridad.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Seguridad.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Sprint 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Sprint 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sprint 3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -108,6 +109,40 @@
   </si>
   <si>
     <t>Al tratar de acceder al apartado redirige a la página de inicio del sitio en vez principal del administrador tipo 1</t>
+  </si>
+  <si>
+    <t>Realizar una votación</t>
+  </si>
+  <si>
+    <t>Tener la sesión iniciada como consejero</t>
+  </si>
+  <si>
+    <t>Se realiza el voto y no permite votar nuevamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forzar la entrada al apartado de administrador sesión iniciada
+</t>
+  </si>
+  <si>
+    <t>Redirige a la página principal del consejero</t>
+  </si>
+  <si>
+    <t>Al tratar de acceder al apartado redirige a la página "dashboard" en vez principal del consejero</t>
+  </si>
+  <si>
+    <t>Se modifica la ruta correspondiente para el correcto funcionamiento</t>
+  </si>
+  <si>
+    <t>Forzar la envío de datos erróneos en votación</t>
+  </si>
+  <si>
+    <t>Muestra mensaje de error por pantalla al enviar los datos</t>
+  </si>
+  <si>
+    <t>Al ingresar una opción que no existente se envía y guarda la información, se requiere ajuste en la función</t>
+  </si>
+  <si>
+    <t>Se modifica la función encargada de verificar los datos para el correcto funcionamiento</t>
   </si>
 </sst>
 </file>
@@ -270,6 +305,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -953,22 +992,22 @@
     <mergeCell ref="H5:J10"/>
     <mergeCell ref="K5:M10"/>
     <mergeCell ref="N5:O10"/>
-    <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:E16"/>
     <mergeCell ref="F11:G16"/>
     <mergeCell ref="H11:J16"/>
     <mergeCell ref="K11:M16"/>
+    <mergeCell ref="N11:O16"/>
     <mergeCell ref="P11:U16"/>
     <mergeCell ref="V11:X16"/>
+    <mergeCell ref="P17:U22"/>
+    <mergeCell ref="V17:X22"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:E22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="N11:O16"/>
+    <mergeCell ref="F17:G22"/>
+    <mergeCell ref="H17:J22"/>
+    <mergeCell ref="K17:M22"/>
     <mergeCell ref="N17:O22"/>
-    <mergeCell ref="F17:G22"/>
-    <mergeCell ref="K17:M22"/>
-    <mergeCell ref="V17:X22"/>
-    <mergeCell ref="H17:J22"/>
-    <mergeCell ref="P17:U22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1573,6 +1612,8 @@
     <mergeCell ref="N3:O4"/>
     <mergeCell ref="P3:U4"/>
     <mergeCell ref="V3:X4"/>
+    <mergeCell ref="P5:U10"/>
+    <mergeCell ref="V5:X10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C5:E10"/>
@@ -1580,32 +1621,667 @@
     <mergeCell ref="H5:J10"/>
     <mergeCell ref="K5:M10"/>
     <mergeCell ref="N5:O10"/>
-    <mergeCell ref="N11:O16"/>
-    <mergeCell ref="H17:J22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="N17:O22"/>
-    <mergeCell ref="C17:E22"/>
-    <mergeCell ref="F17:G22"/>
-    <mergeCell ref="K17:M22"/>
-    <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:E16"/>
     <mergeCell ref="F11:G16"/>
     <mergeCell ref="H11:J16"/>
     <mergeCell ref="K11:M16"/>
+    <mergeCell ref="N11:O16"/>
     <mergeCell ref="P11:U16"/>
     <mergeCell ref="V11:X16"/>
-    <mergeCell ref="F23:G28"/>
-    <mergeCell ref="C23:E28"/>
-    <mergeCell ref="B23:B28"/>
     <mergeCell ref="P17:U22"/>
     <mergeCell ref="V17:X22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:E28"/>
+    <mergeCell ref="F23:G28"/>
+    <mergeCell ref="H23:J28"/>
+    <mergeCell ref="K23:M28"/>
+    <mergeCell ref="N23:O28"/>
+    <mergeCell ref="P23:U28"/>
+    <mergeCell ref="V23:X28"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:E22"/>
+    <mergeCell ref="F17:G22"/>
+    <mergeCell ref="H17:J22"/>
+    <mergeCell ref="K17:M22"/>
+    <mergeCell ref="N17:O22"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="7"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="7"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="7"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="7"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="15"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="7"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="7"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="15"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="7"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="7"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="7"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="7"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="7"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="7"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="7"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="7"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="7"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="7"/>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="7"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="7"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="7"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="7"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="7"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="7"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="7"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="7"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="12"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="7"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="7"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="7"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="7"/>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="7"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="7"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="7"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="7"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="7"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:U4"/>
+    <mergeCell ref="V3:X4"/>
     <mergeCell ref="P5:U10"/>
     <mergeCell ref="V5:X10"/>
-    <mergeCell ref="N23:O28"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:E10"/>
+    <mergeCell ref="F5:G10"/>
+    <mergeCell ref="H5:J10"/>
+    <mergeCell ref="K5:M10"/>
+    <mergeCell ref="N5:O10"/>
+    <mergeCell ref="F11:G16"/>
+    <mergeCell ref="K11:M16"/>
+    <mergeCell ref="V11:X16"/>
+    <mergeCell ref="C11:E16"/>
+    <mergeCell ref="H11:J16"/>
+    <mergeCell ref="P11:U16"/>
+    <mergeCell ref="N11:O16"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:E28"/>
+    <mergeCell ref="F23:G28"/>
     <mergeCell ref="H23:J28"/>
     <mergeCell ref="K23:M28"/>
+    <mergeCell ref="N23:O28"/>
     <mergeCell ref="P23:U28"/>
     <mergeCell ref="V23:X28"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="K17:M22"/>
+    <mergeCell ref="C17:E22"/>
+    <mergeCell ref="F17:G22"/>
+    <mergeCell ref="H17:J22"/>
+    <mergeCell ref="N17:O22"/>
+    <mergeCell ref="P17:U22"/>
+    <mergeCell ref="V17:X22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
